--- a/formats/excel/Formats RSA ANO 16.xlsx
+++ b/formats/excel/Formats RSA ANO 16.xlsx
@@ -130,6 +130,9 @@
     <t>NOSEJ</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>N° Séjour</t>
   </si>
   <si>
@@ -392,9 +395,6 @@
   </si>
   <si>
     <t>NBEVEN</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>Nb venues de la facture</t>
@@ -538,8 +538,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -569,6 +569,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -585,9 +593,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -599,27 +607,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,8 +622,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,6 +632,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,36 +682,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -697,17 +690,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,13 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,19 +770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,19 +800,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,25 +842,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,31 +878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,31 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,17 +946,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,17 +981,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -996,20 +988,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,148 +1017,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1507,11 +1507,11 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21:F51"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1883,7 +1883,7 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1896,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1904,7 +1904,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1925,7 +1925,7 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1959,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1967,7 +1967,7 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1980,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:6">
@@ -1988,7 +1988,7 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2001,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:6">
@@ -2009,7 +2009,7 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2022,7 +2022,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2030,7 +2030,7 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:6">
@@ -2051,7 +2051,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2072,7 +2072,7 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:6">
@@ -2093,7 +2093,7 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2106,7 +2106,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2135,7 +2135,7 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:6">
@@ -2156,7 +2156,7 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2169,7 +2169,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:6">
@@ -2177,7 +2177,7 @@
         <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:6">
@@ -2198,7 +2198,7 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:6">
@@ -2219,7 +2219,7 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2232,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2240,7 +2240,7 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2253,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2261,7 +2261,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2274,7 +2274,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2282,7 +2282,7 @@
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2303,7 +2303,7 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2316,7 +2316,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2324,7 +2324,7 @@
         <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2345,7 +2345,7 @@
         <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2358,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2379,7 +2379,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2387,7 +2387,7 @@
         <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2400,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2408,7 +2408,7 @@
         <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2429,7 +2429,7 @@
         <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2450,7 +2450,7 @@
         <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2463,7 +2463,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2471,7 +2471,7 @@
         <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2484,7 +2484,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2492,7 +2492,7 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2513,7 +2513,7 @@
         <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2526,7 +2526,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2547,7 +2547,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:6">
@@ -2555,7 +2555,7 @@
         <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>7</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2576,7 +2576,7 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2589,7 +2589,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2597,7 +2597,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2610,7 +2610,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2618,7 +2618,7 @@
         <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -2631,7 +2631,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2639,7 +2639,7 @@
         <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2652,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2660,7 +2660,7 @@
         <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2681,7 +2681,7 @@
         <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -2694,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2702,7 +2702,7 @@
         <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -2715,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2723,7 +2723,7 @@
         <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2736,7 +2736,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2744,7 +2744,7 @@
         <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2757,7 +2757,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2765,7 +2765,7 @@
         <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2778,7 +2778,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
         <v>127</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
         <v>140</v>

--- a/formats/excel/Formats RSA ANO 16.xlsx
+++ b/formats/excel/Formats RSA ANO 16.xlsx
@@ -537,9 +537,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -569,16 +569,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,9 +647,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,31 +668,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +699,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,60 +707,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,7 +722,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,175 +896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,17 +931,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,11 +949,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,15 +979,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1003,21 +994,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1028,148 +1004,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1507,11 +1507,11 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
         <v>140</v>
